--- a/Test_Data/NewUserForNewsLetterSubscription.xlsx
+++ b/Test_Data/NewUserForNewsLetterSubscription.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anshul\PycharmProjects\Automation Scripts\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D5B350-4841-4992-AB42-98B85F690E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFCBE9-20E8-497F-92E9-A4CA03CB6E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="3380" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>1290@test.com</t>
+    <t>17121991@test.com</t>
   </si>
 </sst>
 </file>
